--- a/data/EIA/PETR/old/Table_6.1_Coal_Overview.xlsx
+++ b/data/EIA/PETR/old/Table_6.1_Coal_Overview.xlsx
@@ -21,13 +21,13 @@
     <t>U.S. Energy Information Administration</t>
   </si>
   <si>
-    <t>June 2021 Monthly Energy Review</t>
+    <t>December 2021 Monthly Energy Review</t>
   </si>
   <si>
-    <t>Release Date: June 24, 2021</t>
+    <t>Release Date: December 22, 2021</t>
   </si>
   <si>
-    <t>Next Update: July 27, 2021</t>
+    <t>Next Update: January 27, 2022</t>
   </si>
   <si>
     <t>Table 6.1 Coal Overview</t>
@@ -473,7 +473,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:I593"/>
+  <dimension ref="A1:I599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A13" sqref="A13"/>
@@ -16940,7 +16940,7 @@
         <v>43831</v>
       </c>
       <c r="B577">
-        <v>55612.457</v>
+        <v>55666.973</v>
       </c>
       <c r="C577">
         <v>681.479</v>
@@ -16949,19 +16949,19 @@
         <v>535.139</v>
       </c>
       <c r="E577">
-        <v>6234.391</v>
+        <v>6229.61</v>
       </c>
       <c r="F577">
-        <v>-5699.252</v>
+        <v>-5694.471</v>
       </c>
       <c r="G577">
-        <v>6083.788</v>
+        <v>6117.136</v>
       </c>
       <c r="H577">
-        <v>3789.253</v>
+        <v>3771.569</v>
       </c>
       <c r="I577">
-        <v>40721.643</v>
+        <v>40765.276</v>
       </c>
     </row>
     <row r="578" spans="1:9">
@@ -16969,7 +16969,7 @@
         <v>43862</v>
       </c>
       <c r="B578">
-        <v>47378.796</v>
+        <v>47425.208</v>
       </c>
       <c r="C578">
         <v>664.593</v>
@@ -16978,19 +16978,19 @@
         <v>343.12</v>
       </c>
       <c r="E578">
-        <v>6828.624</v>
+        <v>6610.726</v>
       </c>
       <c r="F578">
-        <v>-6485.504</v>
+        <v>-6267.606</v>
       </c>
       <c r="G578">
-        <v>5195.238</v>
+        <v>5245.511</v>
       </c>
       <c r="H578">
-        <v>380.717</v>
+        <v>560.478</v>
       </c>
       <c r="I578">
-        <v>35981.93</v>
+        <v>36016.206</v>
       </c>
     </row>
     <row r="579" spans="1:9">
@@ -16998,7 +16998,7 @@
         <v>43891</v>
       </c>
       <c r="B579">
-        <v>46060.926</v>
+        <v>46106.032</v>
       </c>
       <c r="C579">
         <v>526.69</v>
@@ -17007,19 +17007,19 @@
         <v>460.802</v>
       </c>
       <c r="E579">
-        <v>6913.515</v>
+        <v>7070.338</v>
       </c>
       <c r="F579">
-        <v>-6452.713</v>
+        <v>-6609.536</v>
       </c>
       <c r="G579">
-        <v>4810.294</v>
+        <v>4795.354</v>
       </c>
       <c r="H579">
-        <v>2524.843</v>
+        <v>2382.245</v>
       </c>
       <c r="I579">
-        <v>32799.766</v>
+        <v>32845.587</v>
       </c>
     </row>
     <row r="580" spans="1:9">
@@ -17027,7 +17027,7 @@
         <v>43922</v>
       </c>
       <c r="B580">
-        <v>38999.501</v>
+        <v>39346.704</v>
       </c>
       <c r="C580">
         <v>515.017</v>
@@ -17036,19 +17036,19 @@
         <v>364.603</v>
       </c>
       <c r="E580">
-        <v>5479.635</v>
+        <v>5550.884</v>
       </c>
       <c r="F580">
-        <v>-5115.032</v>
+        <v>-5186.281</v>
       </c>
       <c r="G580">
-        <v>6795.986</v>
+        <v>6820.84</v>
       </c>
       <c r="H580">
-        <v>899.357</v>
+        <v>1102.859</v>
       </c>
       <c r="I580">
-        <v>26704.143</v>
+        <v>26751.741</v>
       </c>
     </row>
     <row r="581" spans="1:9">
@@ -17056,28 +17056,28 @@
         <v>43952</v>
       </c>
       <c r="B581">
-        <v>36934.071</v>
+        <v>37262.845</v>
       </c>
       <c r="C581">
         <v>498.943</v>
       </c>
       <c r="D581">
-        <v>497.557</v>
+        <v>535.237</v>
       </c>
       <c r="E581">
-        <v>4719.496</v>
+        <v>4714.203</v>
       </c>
       <c r="F581">
-        <v>-4221.939</v>
+        <v>-4178.966</v>
       </c>
       <c r="G581">
-        <v>2620.725</v>
+        <v>2635.041</v>
       </c>
       <c r="H581">
-        <v>769.227</v>
+        <v>1163.299</v>
       </c>
       <c r="I581">
-        <v>29821.123</v>
+        <v>29784.482</v>
       </c>
     </row>
     <row r="582" spans="1:9">
@@ -17085,28 +17085,28 @@
         <v>43983</v>
       </c>
       <c r="B582">
-        <v>39258.833</v>
+        <v>39608.335</v>
       </c>
       <c r="C582">
         <v>580.138</v>
       </c>
       <c r="D582">
-        <v>284.114</v>
+        <v>227.002</v>
       </c>
       <c r="E582">
-        <v>4579.16</v>
+        <v>4582.767</v>
       </c>
       <c r="F582">
-        <v>-4295.046</v>
+        <v>-4355.765</v>
       </c>
       <c r="G582">
-        <v>-5691.481</v>
+        <v>-5659.248</v>
       </c>
       <c r="H582">
-        <v>1326.209</v>
+        <v>1691.362</v>
       </c>
       <c r="I582">
-        <v>39909.197</v>
+        <v>39800.594</v>
       </c>
     </row>
     <row r="583" spans="1:9">
@@ -17114,28 +17114,28 @@
         <v>44013</v>
       </c>
       <c r="B583">
-        <v>43195.797</v>
+        <v>43217.2</v>
       </c>
       <c r="C583">
         <v>706.491</v>
       </c>
       <c r="D583">
-        <v>473.338</v>
+        <v>530.45</v>
       </c>
       <c r="E583">
-        <v>5358.965</v>
+        <v>5344.437</v>
       </c>
       <c r="F583">
-        <v>-4885.627</v>
+        <v>-4813.987</v>
       </c>
       <c r="G583">
-        <v>-14294.176</v>
+        <v>-14395.569</v>
       </c>
       <c r="H583">
-        <v>360.67</v>
+        <v>651.002</v>
       </c>
       <c r="I583">
-        <v>52950.167</v>
+        <v>52854.271</v>
       </c>
     </row>
     <row r="584" spans="1:9">
@@ -17143,7 +17143,7 @@
         <v>44044</v>
       </c>
       <c r="B584">
-        <v>47499.327</v>
+        <v>47522.893</v>
       </c>
       <c r="C584">
         <v>763.873</v>
@@ -17152,19 +17152,19 @@
         <v>313.821</v>
       </c>
       <c r="E584">
-        <v>4522.487</v>
+        <v>4544.978</v>
       </c>
       <c r="F584">
-        <v>-4208.666</v>
+        <v>-4231.157</v>
       </c>
       <c r="G584">
-        <v>-7938.689</v>
+        <v>-9149.018</v>
       </c>
       <c r="H584">
-        <v>-1719.241</v>
+        <v>-406.361</v>
       </c>
       <c r="I584">
-        <v>53712.464</v>
+        <v>53610.988</v>
       </c>
     </row>
     <row r="585" spans="1:9">
@@ -17172,7 +17172,7 @@
         <v>44075</v>
       </c>
       <c r="B585">
-        <v>45118.959</v>
+        <v>45141.308</v>
       </c>
       <c r="C585">
         <v>701.497</v>
@@ -17187,13 +17187,13 @@
         <v>-4869.587</v>
       </c>
       <c r="G585">
-        <v>-1216.773</v>
+        <v>-1918.079</v>
       </c>
       <c r="H585">
-        <v>279.522</v>
+        <v>1064.862</v>
       </c>
       <c r="I585">
-        <v>41888.12</v>
+        <v>41826.435</v>
       </c>
     </row>
     <row r="586" spans="1:9">
@@ -17201,28 +17201,28 @@
         <v>44105</v>
       </c>
       <c r="B586">
-        <v>45024.109</v>
+        <v>44988.279</v>
       </c>
       <c r="C586">
         <v>679.309</v>
       </c>
       <c r="D586">
-        <v>262.679</v>
+        <v>264.018</v>
       </c>
       <c r="E586">
-        <v>5045.125</v>
+        <v>4921.101</v>
       </c>
       <c r="F586">
-        <v>-4782.446</v>
+        <v>-4657.083</v>
       </c>
       <c r="G586">
-        <v>5719.608</v>
+        <v>3740.019</v>
       </c>
       <c r="H586">
-        <v>-2306.016</v>
+        <v>-125.455</v>
       </c>
       <c r="I586">
-        <v>37507.38</v>
+        <v>37395.941</v>
       </c>
     </row>
     <row r="587" spans="1:9">
@@ -17230,7 +17230,7 @@
         <v>44136</v>
       </c>
       <c r="B587">
-        <v>44380.233</v>
+        <v>44344.921</v>
       </c>
       <c r="C587">
         <v>645.026</v>
@@ -17239,19 +17239,19 @@
         <v>639.453</v>
       </c>
       <c r="E587">
-        <v>7018.336</v>
+        <v>7034.11</v>
       </c>
       <c r="F587">
-        <v>-6378.883</v>
+        <v>-6394.657</v>
       </c>
       <c r="G587">
-        <v>2763.053</v>
+        <v>1763.177</v>
       </c>
       <c r="H587">
-        <v>-2145.244</v>
+        <v>-1039.687</v>
       </c>
       <c r="I587">
-        <v>38028.567</v>
+        <v>37871.8</v>
       </c>
     </row>
     <row r="588" spans="1:9">
@@ -17259,7 +17259,7 @@
         <v>44166</v>
       </c>
       <c r="B588">
-        <v>44839.308</v>
+        <v>44803.656</v>
       </c>
       <c r="C588">
         <v>800.01</v>
@@ -17268,19 +17268,19 @@
         <v>422.801</v>
       </c>
       <c r="E588">
-        <v>7000.518</v>
+        <v>7092.905</v>
       </c>
       <c r="F588">
-        <v>-6577.717</v>
+        <v>-6670.104</v>
       </c>
       <c r="G588">
-        <v>-4223.536</v>
+        <v>-3611.025</v>
       </c>
       <c r="H588">
-        <v>-4005.361</v>
+        <v>-4630.306</v>
       </c>
       <c r="I588">
-        <v>47290.498</v>
+        <v>47174.893</v>
       </c>
     </row>
     <row r="589" spans="1:9">
@@ -17291,7 +17291,7 @@
         <v>48556.349</v>
       </c>
       <c r="C589">
-        <v>666.989</v>
+        <v>741.954</v>
       </c>
       <c r="D589">
         <v>525.897</v>
@@ -17303,13 +17303,13 @@
         <v>-5203.875</v>
       </c>
       <c r="G589">
-        <v>-6957.809</v>
+        <v>-3761.673</v>
       </c>
       <c r="H589">
-        <v>1784.286</v>
+        <v>-1260.731</v>
       </c>
       <c r="I589">
-        <v>49192.986</v>
+        <v>49116.832</v>
       </c>
     </row>
     <row r="590" spans="1:9">
@@ -17320,7 +17320,7 @@
         <v>40868.284</v>
       </c>
       <c r="C590">
-        <v>666.989</v>
+        <v>756.174</v>
       </c>
       <c r="D590">
         <v>308.687</v>
@@ -17332,13 +17332,13 @@
         <v>-7086.732</v>
       </c>
       <c r="G590">
-        <v>-15764.685</v>
+        <v>-15655.685</v>
       </c>
       <c r="H590">
-        <v>-331.163</v>
+        <v>-1472.466</v>
       </c>
       <c r="I590">
-        <v>50544.39</v>
+        <v>51665.877</v>
       </c>
     </row>
     <row r="591" spans="1:9">
@@ -17349,7 +17349,7 @@
         <v>50881.473</v>
       </c>
       <c r="C591">
-        <v>666.989</v>
+        <v>690.155</v>
       </c>
       <c r="D591">
         <v>240.521</v>
@@ -17361,13 +17361,13 @@
         <v>-7340.209</v>
       </c>
       <c r="G591">
-        <v>2044.756</v>
+        <v>1632.876</v>
       </c>
       <c r="H591">
-        <v>5370.787</v>
+        <v>4230.417</v>
       </c>
       <c r="I591">
-        <v>36792.71</v>
+        <v>38368.126</v>
       </c>
     </row>
     <row r="592" spans="1:9">
@@ -17375,10 +17375,10 @@
         <v>44287</v>
       </c>
       <c r="B592">
-        <v>48324.121</v>
-      </c>
-      <c r="C592" t="s">
-        <v>15</v>
+        <v>45317.715</v>
+      </c>
+      <c r="C592">
+        <v>467.924</v>
       </c>
       <c r="D592">
         <v>509.268</v>
@@ -17389,14 +17389,14 @@
       <c r="F592">
         <v>-6301.718</v>
       </c>
-      <c r="G592" t="s">
-        <v>15</v>
-      </c>
-      <c r="H592" t="s">
-        <v>15</v>
-      </c>
-      <c r="I592" t="s">
-        <v>15</v>
+      <c r="G592">
+        <v>6400.008</v>
+      </c>
+      <c r="H592">
+        <v>-609.117</v>
+      </c>
+      <c r="I592">
+        <v>33693.03</v>
       </c>
     </row>
     <row r="593" spans="1:9">
@@ -17404,27 +17404,201 @@
         <v>44317</v>
       </c>
       <c r="B593">
-        <v>51888.615</v>
-      </c>
-      <c r="C593" t="s">
-        <v>15</v>
-      </c>
-      <c r="D593" t="s">
-        <v>15</v>
-      </c>
-      <c r="E593" t="s">
-        <v>15</v>
-      </c>
-      <c r="F593" t="s">
-        <v>15</v>
-      </c>
-      <c r="G593" t="s">
-        <v>15</v>
-      </c>
-      <c r="H593" t="s">
-        <v>15</v>
-      </c>
-      <c r="I593" t="s">
+        <v>48632.001</v>
+      </c>
+      <c r="C593">
+        <v>566.053</v>
+      </c>
+      <c r="D593">
+        <v>512.178</v>
+      </c>
+      <c r="E593">
+        <v>7486.726</v>
+      </c>
+      <c r="F593">
+        <v>-6974.548</v>
+      </c>
+      <c r="G593">
+        <v>2897.096</v>
+      </c>
+      <c r="H593">
+        <v>69.545</v>
+      </c>
+      <c r="I593">
+        <v>39256.865</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9">
+      <c r="A594" s="6">
+        <v>44348</v>
+      </c>
+      <c r="B594">
+        <v>48797.648</v>
+      </c>
+      <c r="C594">
+        <v>653.94</v>
+      </c>
+      <c r="D594">
+        <v>508.918</v>
+      </c>
+      <c r="E594">
+        <v>7835.719</v>
+      </c>
+      <c r="F594">
+        <v>-7326.801</v>
+      </c>
+      <c r="G594">
+        <v>-11616.755</v>
+      </c>
+      <c r="H594">
+        <v>2114.136</v>
+      </c>
+      <c r="I594">
+        <v>51627.406</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9">
+      <c r="A595" s="6">
+        <v>44378</v>
+      </c>
+      <c r="B595">
+        <v>48475.408</v>
+      </c>
+      <c r="C595">
+        <v>666.989</v>
+      </c>
+      <c r="D595">
+        <v>564.067</v>
+      </c>
+      <c r="E595">
+        <v>6510.867</v>
+      </c>
+      <c r="F595">
+        <v>-5946.8</v>
+      </c>
+      <c r="G595">
+        <v>-14324.743</v>
+      </c>
+      <c r="H595">
+        <v>-2534.11</v>
+      </c>
+      <c r="I595">
+        <v>60054.45</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9">
+      <c r="A596" s="6">
+        <v>44409</v>
+      </c>
+      <c r="B596">
+        <v>50041.584</v>
+      </c>
+      <c r="C596">
+        <v>666.989</v>
+      </c>
+      <c r="D596">
+        <v>368.13</v>
+      </c>
+      <c r="E596">
+        <v>7692.33</v>
+      </c>
+      <c r="F596">
+        <v>-7324.2</v>
+      </c>
+      <c r="G596">
+        <v>-12867.758</v>
+      </c>
+      <c r="H596">
+        <v>-3414.163</v>
+      </c>
+      <c r="I596">
+        <v>59666.294</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9">
+      <c r="A597" s="6">
+        <v>44440</v>
+      </c>
+      <c r="B597">
+        <v>49762.177</v>
+      </c>
+      <c r="C597">
+        <v>666.989</v>
+      </c>
+      <c r="D597">
+        <v>201.726</v>
+      </c>
+      <c r="E597">
+        <v>6515.004</v>
+      </c>
+      <c r="F597">
+        <v>-6313.278</v>
+      </c>
+      <c r="G597">
+        <v>-4727.59</v>
+      </c>
+      <c r="H597">
+        <v>789.599</v>
+      </c>
+      <c r="I597">
+        <v>48053.879</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9">
+      <c r="A598" s="6">
+        <v>44470</v>
+      </c>
+      <c r="B598">
+        <v>49347.633</v>
+      </c>
+      <c r="C598" t="s">
+        <v>15</v>
+      </c>
+      <c r="D598">
+        <v>525.5</v>
+      </c>
+      <c r="E598">
+        <v>7259.097</v>
+      </c>
+      <c r="F598">
+        <v>-6733.597</v>
+      </c>
+      <c r="G598" t="s">
+        <v>15</v>
+      </c>
+      <c r="H598" t="s">
+        <v>15</v>
+      </c>
+      <c r="I598" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9">
+      <c r="A599" s="6">
+        <v>44501</v>
+      </c>
+      <c r="B599">
+        <v>49065.768</v>
+      </c>
+      <c r="C599" t="s">
+        <v>15</v>
+      </c>
+      <c r="D599" t="s">
+        <v>15</v>
+      </c>
+      <c r="E599" t="s">
+        <v>15</v>
+      </c>
+      <c r="F599" t="s">
+        <v>15</v>
+      </c>
+      <c r="G599" t="s">
+        <v>15</v>
+      </c>
+      <c r="H599" t="s">
+        <v>15</v>
+      </c>
+      <c r="I599" t="s">
         <v>15</v>
       </c>
     </row>
@@ -19622,28 +19796,28 @@
         <v>2020</v>
       </c>
       <c r="B84">
-        <v>534302.317</v>
+        <v>535434.354</v>
       </c>
       <c r="C84">
         <v>7763.066</v>
       </c>
       <c r="D84">
-        <v>5098.351</v>
+        <v>5137.37</v>
       </c>
       <c r="E84">
-        <v>69070.763</v>
+        <v>69066.57</v>
       </c>
       <c r="F84">
-        <v>-63972.412</v>
+        <v>-63929.2</v>
       </c>
       <c r="G84">
-        <v>624.037</v>
+        <v>-3615.861</v>
       </c>
       <c r="H84">
-        <v>153.936</v>
+        <v>6185.867</v>
       </c>
       <c r="I84">
-        <v>477314.998</v>
+        <v>476698.214</v>
       </c>
     </row>
   </sheetData>
